--- a/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE3C725-E780-4809-BE3F-A034C6B07B78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1740,12 +1739,27 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>54000</t>
+  </si>
+  <si>
+    <t>https://us06web.zoom.us/j/83355550067?pwd=cFVzU2NtUEdPTzN5L0dkaDlCUkNldz09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1860,7 +1874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1886,6 +1900,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2158,18 +2173,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,7 +2192,7 @@
     <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2190,8 +2205,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2204,8 +2222,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2219,7 +2240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2233,7 +2254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2247,7 +2268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2261,7 +2282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2275,7 +2296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2288,8 +2309,11 @@
       <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2302,8 +2326,9 @@
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2316,8 +2341,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2331,7 +2359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2359,7 +2387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2373,7 +2401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2386,8 +2414,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4858,7 +4889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1760,6 +1760,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2173,7 +2174,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2189,7 +2190,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2205,7 +2206,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>573</v>
       </c>
     </row>
@@ -2222,7 +2223,7 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>574</v>
       </c>
     </row>
@@ -2309,7 +2310,7 @@
       <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>577</v>
       </c>
     </row>
@@ -2341,7 +2342,7 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>575</v>
       </c>
     </row>
@@ -2414,7 +2415,7 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>576</v>
       </c>
     </row>
